--- a/Assets/ArtRes/Excel/游戏机制配置表.xlsx
+++ b/Assets/ArtRes/Excel/游戏机制配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="13070" windowHeight="4410"/>
   </bookViews>
   <sheets>
     <sheet name="IteratValueInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>机制的名字</t>
   </si>
@@ -65,7 +65,10 @@
     <t>MonsterSpeed</t>
   </si>
   <si>
-    <t>BeInjuredIntervalTime</t>
+    <t>IntervalTime</t>
+  </si>
+  <si>
+    <t>LevelTime</t>
   </si>
 </sst>
 </file>
@@ -1003,13 +1006,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="18.9090909090909" customWidth="1"/>
@@ -1097,6 +1100,17 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
